--- a/total.xlsx
+++ b/total.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018523B-8916-4C12-B3F6-D7C31E8030FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5589BE-FEE8-4575-8E38-699B779DC030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>型號 / Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝突</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -394,30 +402,36 @@
     <col min="8" max="8" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
